--- a/others/项目实战/考勤/考勤表.xlsx
+++ b/others/项目实战/考勤/考勤表.xlsx
@@ -702,7 +702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -735,6 +735,21 @@
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,7 +892,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,34 +904,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,7 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,14 +1044,26 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1349,77 +1376,101 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:N14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="38" customHeight="1"/>
   <cols>
-    <col min="1" max="14" width="14.125" style="11" customWidth="1"/>
+    <col min="1" max="14" width="14.125" style="12" customWidth="1"/>
     <col min="15" max="16384" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="11" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:14">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
@@ -1438,19 +1489,19 @@
         <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>22</v>
@@ -1458,11 +1509,13 @@
       <c r="L3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1478,30 +1531,30 @@
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="4" t="s">
@@ -1520,24 +1573,26 @@
         <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="M5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1546,7 +1601,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1562,19 +1617,19 @@
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>22</v>
@@ -1582,9 +1637,7 @@
       <c r="L6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1606,19 +1659,19 @@
         <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>22</v>
@@ -1626,7 +1679,9 @@
       <c r="L7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1648,19 +1703,19 @@
         <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>22</v>
@@ -1692,19 +1747,19 @@
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>22</v>
@@ -1712,9 +1767,7 @@
       <c r="L9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1736,19 +1789,19 @@
         <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>22</v>
@@ -1756,7 +1809,9 @@
       <c r="L10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1778,19 +1833,19 @@
         <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>22</v>
@@ -1822,19 +1877,19 @@
         <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>22</v>
@@ -1850,86 +1905,86 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="J13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:14">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
     </row>
     <row r="15" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
@@ -1948,19 +2003,19 @@
         <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>22</v>
@@ -1992,19 +2047,19 @@
         <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>22</v>
@@ -2036,13 +2091,13 @@
         <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>22</v>
@@ -2080,19 +2135,19 @@
         <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>22</v>
@@ -2108,7 +2163,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:14">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2124,19 +2179,19 @@
         <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>22</v>
@@ -2168,19 +2223,19 @@
         <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>22</v>
@@ -2196,7 +2251,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:14">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2212,19 +2267,19 @@
         <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>22</v>
@@ -2256,19 +2311,19 @@
         <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>22</v>
@@ -2300,19 +2355,19 @@
         <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>22</v>
@@ -2328,7 +2383,7 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:14">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2343,20 +2398,20 @@
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>73</v>
+      <c r="F24" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>22</v>
@@ -2371,49 +2426,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:14">
-      <c r="A25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="1045373" customHeight="1" spans="1:14">
+      <c r="A1045373"/>
+      <c r="B1045373"/>
+      <c r="C1045373"/>
+      <c r="D1045373"/>
+      <c r="E1045373"/>
+      <c r="F1045373"/>
+      <c r="G1045373"/>
+      <c r="H1045373"/>
+      <c r="I1045373"/>
+      <c r="J1045373"/>
+      <c r="K1045373"/>
+      <c r="L1045373"/>
+      <c r="M1045373"/>
+      <c r="N1045373"/>
     </row>
     <row r="1045374" customHeight="1" spans="1:14">
       <c r="A1045374"/>
@@ -53647,39 +53674,7 @@
       <c r="M1048575"/>
       <c r="N1048575"/>
     </row>
-    <row r="1048576" customHeight="1" spans="1:14">
-      <c r="A1048576"/>
-      <c r="B1048576"/>
-      <c r="C1048576"/>
-      <c r="D1048576"/>
-      <c r="E1048576"/>
-      <c r="F1048576"/>
-      <c r="G1048576"/>
-      <c r="H1048576"/>
-      <c r="I1048576"/>
-      <c r="J1048576"/>
-      <c r="K1048576"/>
-      <c r="L1048576"/>
-      <c r="M1048576"/>
-      <c r="N1048576"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
